--- a/Documentation/TimeTrails.xlsx
+++ b/Documentation/TimeTrails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="0" windowWidth="25600" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="2980" yWindow="0" windowWidth="25600" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
